--- a/bib/Guidance Output.xlsx
+++ b/bib/Guidance Output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="0" windowWidth="20060" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="3520" yWindow="0" windowWidth="20060" windowHeight="15600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptives" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="79">
   <si>
     <t>Yackee, March 2019</t>
   </si>
@@ -164,15 +164,6 @@
     <t>robust standard errors AND cluster by number</t>
   </si>
   <si>
-    <t>General  Influence</t>
-  </si>
-  <si>
-    <t>Public Interest Group Influence</t>
-  </si>
-  <si>
-    <t>Corporate Influence</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>Experimental Condition</t>
   </si>
   <si>
-    <t>Key Predictor Variables</t>
-  </si>
-  <si>
     <t>se</t>
   </si>
   <si>
@@ -255,6 +243,30 @@
   </si>
   <si>
     <t>Key Predictor</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Key Predictors</t>
+  </si>
+  <si>
+    <t>Model E, Corporate Influence</t>
+  </si>
+  <si>
+    <t>Model D, Public Interest Group Influence</t>
+  </si>
+  <si>
+    <t>Model C, Public Interest Group Influence</t>
+  </si>
+  <si>
+    <t>Model B, General  Influence</t>
+  </si>
+  <si>
+    <t>Model A, General  Influence</t>
+  </si>
+  <si>
+    <t>Model F, Corporate Influence</t>
   </si>
 </sst>
 </file>
@@ -349,8 +361,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -424,7 +456,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -444,6 +476,16 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -463,6 +505,16 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -866,56 +918,56 @@
     </row>
     <row r="6" spans="1:20" ht="56" customHeight="1" thickBot="1">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="16" thickTop="1">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5">
         <v>1.1759930000000001</v>
@@ -966,13 +1018,13 @@
     </row>
     <row r="8" spans="1:20" s="7" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" s="8">
         <v>0.49934800000000001</v>
@@ -1031,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6">
         <v>0.30706600000000001</v>
@@ -1083,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="9">
         <v>0.18548600000000001</v>
@@ -1145,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6">
         <v>0.27459610000000001</v>
@@ -1193,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="9">
         <v>0.14135700000000001</v>
@@ -1255,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6">
         <v>5.3990000000000002E-3</v>
@@ -1301,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" s="9">
         <v>4.5258E-3</v>
@@ -1363,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>20</v>
@@ -1409,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1463,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>20</v>
@@ -1512,7 +1564,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1566,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>20</v>
@@ -1617,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1669,7 +1721,7 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>20</v>
@@ -1715,7 +1767,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1766,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>20</v>
@@ -1810,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1862,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>20</v>
@@ -1906,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1958,7 +2010,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>20</v>
@@ -2002,7 +2054,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2054,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>20</v>
@@ -2096,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2148,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>20</v>
@@ -2190,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2242,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>20</v>
@@ -2288,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2340,7 +2392,7 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>20</v>
@@ -2386,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2438,7 +2490,7 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>20</v>
@@ -2485,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -2537,7 +2589,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>20</v>
@@ -2581,7 +2633,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -2806,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2830,68 +2882,80 @@
     <col min="16" max="16" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="1:16">
       <c r="E5" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="75" customHeight="1" thickBot="1">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="17" thickTop="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16" thickTop="1">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="5">
         <v>-0.61156699999999997</v>
@@ -2918,7 +2982,13 @@
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:16" s="7" customFormat="1">
+    <row r="8" spans="1:16" s="7" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E8" s="8">
         <v>0.37916670000000002</v>
       </c>
@@ -2944,7 +3014,10 @@
       </c>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="2:16" ht="6" customHeight="1">
+    <row r="9" spans="1:16" ht="6" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2958,9 +3031,15 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B10" t="s">
         <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
       </c>
       <c r="E10" s="5">
         <v>1.61486</v>
@@ -2995,7 +3074,13 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="2:16" s="7" customFormat="1">
+    <row r="11" spans="1:16" s="7" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="8">
         <v>0.68104500000000001</v>
       </c>
@@ -3021,7 +3106,10 @@
       </c>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="2:16" ht="6" customHeight="1">
+    <row r="12" spans="1:16" ht="6" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3035,9 +3123,15 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B13" t="s">
         <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="11">
         <v>-0.82667000000000002</v>
@@ -3064,7 +3158,13 @@
       </c>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="2:16" s="7" customFormat="1">
+    <row r="14" spans="1:16" s="7" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="12">
         <v>0.52983499999999994</v>
       </c>
@@ -3090,10 +3190,7 @@
       </c>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="15" spans="1:16">
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3107,9 +3204,15 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>28</v>
@@ -3138,8 +3241,14 @@
       </c>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B17" s="1"/>
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -3159,7 +3268,10 @@
       </c>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" ht="6" customHeight="1">
+    <row r="18" spans="1:16" ht="6" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3173,9 +3285,15 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B19" t="s">
         <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>28</v>
@@ -3202,7 +3320,13 @@
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
@@ -3222,7 +3346,10 @@
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="2:16" ht="6" customHeight="1">
+    <row r="21" spans="1:16" ht="6" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3236,9 +3363,15 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B22" t="s">
         <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>28</v>
@@ -3269,7 +3402,13 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6">
@@ -3289,7 +3428,10 @@
       </c>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="2:16" ht="6" customHeight="1">
+    <row r="24" spans="1:16" ht="6" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3303,9 +3445,15 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B25" t="s">
         <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>28</v>
@@ -3334,7 +3482,13 @@
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6">
@@ -3354,7 +3508,10 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="2:16" ht="6" customHeight="1">
+    <row r="27" spans="1:16" ht="6" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3368,9 +3525,15 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B28" t="s">
         <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>28</v>
@@ -3397,7 +3560,13 @@
       </c>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6">
@@ -3417,7 +3586,10 @@
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="2:16" ht="6" customHeight="1">
+    <row r="30" spans="1:16" ht="6" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3431,9 +3603,15 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B31" t="s">
         <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>28</v>
@@ -3462,7 +3640,13 @@
       </c>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6">
@@ -3482,7 +3666,10 @@
       </c>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="2:16" ht="6" customHeight="1">
+    <row r="33" spans="1:16" ht="6" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3496,9 +3683,15 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B34" t="s">
         <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>28</v>
@@ -3529,7 +3722,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6">
@@ -3549,7 +3748,10 @@
       </c>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="2:16" ht="6" customHeight="1">
+    <row r="36" spans="1:16" ht="6" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3563,9 +3765,15 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B37" t="s">
         <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>28</v>
@@ -3594,7 +3802,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
@@ -3614,7 +3828,10 @@
       </c>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="2:16" ht="6" customHeight="1">
+    <row r="39" spans="1:16" ht="6" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -3628,9 +3845,15 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="1:16">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B40" t="s">
         <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>28</v>
@@ -3657,7 +3880,13 @@
       </c>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="1:16">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
@@ -3677,7 +3906,10 @@
       </c>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="2:16" ht="6" customHeight="1">
+    <row r="42" spans="1:16" ht="6" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3691,9 +3923,15 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="1:16">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B43" t="s">
         <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
       </c>
       <c r="E43" s="6">
         <v>0.13353000000000001</v>
@@ -3728,7 +3966,13 @@
       </c>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="1:16">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E44" s="6">
         <v>0.18634899999999999</v>
       </c>
@@ -3754,7 +3998,7 @@
       </c>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="1:16">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3783,47 +4027,62 @@
       </c>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="1:16">
       <c r="B46" t="s">
         <v>31</v>
       </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
       <c r="E46" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P46" s="4"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="47" spans="1:16">
+      <c r="C47" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
         <v>43</v>
       </c>
+      <c r="C50" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/bib/Guidance Output.xlsx
+++ b/bib/Guidance Output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="0" windowWidth="20060" windowHeight="15600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptives" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="77">
   <si>
     <t>Yackee, March 2019</t>
   </si>
@@ -221,27 +221,6 @@
     <t>1 Perceived Success</t>
   </si>
   <si>
-    <t>2 Perceived Success-Confidence</t>
-  </si>
-  <si>
-    <t>3 Perceived Success</t>
-  </si>
-  <si>
-    <t>4 Perceived Success-Confidence</t>
-  </si>
-  <si>
-    <t>5 Lobbying Success</t>
-  </si>
-  <si>
-    <t>6 Top Issue Lobbying Success</t>
-  </si>
-  <si>
-    <t>7 Lobbying Success</t>
-  </si>
-  <si>
-    <t>8 Top Issue Lobbying Success</t>
-  </si>
-  <si>
     <t>Key Predictor</t>
   </si>
   <si>
@@ -267,6 +246,21 @@
   </si>
   <si>
     <t>Model F, Corporate Influence</t>
+  </si>
+  <si>
+    <t>3 Lobbying Success</t>
+  </si>
+  <si>
+    <t>4 Lobbying Success</t>
+  </si>
+  <si>
+    <t>Top Issue Lobbying Success</t>
+  </si>
+  <si>
+    <t>Perceived Success-Confidence</t>
+  </si>
+  <si>
+    <t>2 Perceived Success</t>
   </si>
 </sst>
 </file>
@@ -819,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -846,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C50"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -931,37 +925,37 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="16" thickTop="1">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1018,7 +1012,7 @@
     </row>
     <row r="8" spans="1:20" s="7" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2860,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -2920,7 +2914,7 @@
     </row>
     <row r="6" spans="1:16" ht="75" customHeight="1" thickBot="1">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>59</v>
@@ -2929,27 +2923,27 @@
         <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16" thickTop="1">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -2984,7 +2978,7 @@
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>57</v>
@@ -3016,7 +3010,7 @@
     </row>
     <row r="9" spans="1:16" ht="6" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -3033,7 +3027,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -3076,7 +3070,7 @@
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>57</v>
@@ -3108,7 +3102,7 @@
     </row>
     <row r="12" spans="1:16" ht="6" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -3125,7 +3119,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -3160,7 +3154,7 @@
     </row>
     <row r="14" spans="1:16" s="7" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>57</v>
